--- a/数据库脚本/数据库设计.xlsx
+++ b/数据库脚本/数据库设计.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\其它项目\ASP.NET\后台管理模版(权限+分页查询_SQL Server数据库)\数据库脚本\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\其它项目\ASP.NET\后台管理系统\后台管理模版(权限+分页查询_SQL Server数据库)\BMSystemTemplate\数据库脚本\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631689AF-06A4-4F38-9BBA-7F4253DA80BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2E061F-B054-4C41-A016-226062A93314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="项目基础信息" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="124">
   <si>
     <t>ModuleID</t>
   </si>
@@ -431,55 +431,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>UserGUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DepartmentGUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门GUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object_GUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作对象GUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create_Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operation_Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户GUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>角色GUID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UserGUID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户GUID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserRoleGUID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DepartmentGUID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门GUID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户角色GUID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作用户GUID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作用户角色GUID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Object_GUID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作对象GUID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create_Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Operation_Time</t>
+    <t>RoleID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DepartmentID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserRoleID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户角色ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作用户角色ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,8 +561,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -829,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C45" sqref="A41:C45"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -843,374 +866,413 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" t="s">
-        <v>108</v>
-      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="B12" t="s">
         <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" t="s">
         <v>29</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C20" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+    <row r="22" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" t="s">
         <v>29</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C31" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+    <row r="33" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>105</v>
-      </c>
-      <c r="B32" t="s">
-        <v>82</v>
-      </c>
-      <c r="C32" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>0</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35" t="s">
         <v>9</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C35" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+    <row r="37" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>110</v>
-      </c>
-      <c r="B36" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>100</v>
-      </c>
-      <c r="B37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" t="s">
-        <v>101</v>
-      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" t="s">
         <v>29</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C42" t="s">
         <v>55</v>
       </c>
     </row>
+    <row r="44" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A35:C35"/>
+  <mergeCells count="7">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A44:C44"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A33:C33"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1219,26 +1281,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A9" sqref="A9:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="3" max="3" width="30.875" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -1297,7 +1359,7 @@
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -1306,9 +1368,24 @@
         <v>55</v>
       </c>
     </row>
+    <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="20" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A20:C20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1317,11 +1394,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1332,11 +1409,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -1351,13 +1428,13 @@
     </row>
     <row r="3" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -1373,13 +1450,13 @@
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -1395,7 +1472,7 @@
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -1427,11 +1504,11 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -1457,13 +1534,13 @@
     </row>
     <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -1479,13 +1556,13 @@
     </row>
     <row r="16" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -1501,7 +1578,7 @@
     </row>
     <row r="18" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -1544,11 +1621,11 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -1574,13 +1651,13 @@
     </row>
     <row r="26" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B26" t="s">
         <v>82</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -1629,13 +1706,13 @@
     </row>
     <row r="31" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -1651,13 +1728,13 @@
     </row>
     <row r="33" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -1673,7 +1750,7 @@
     </row>
     <row r="35" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B35" t="s">
         <v>29</v>

--- a/数据库脚本/数据库设计.xlsx
+++ b/数据库脚本/数据库设计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\其它项目\ASP.NET\后台管理系统\后台管理模版(权限+分页查询_SQL Server数据库)\BMSystemTemplate\数据库脚本\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2E061F-B054-4C41-A016-226062A93314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D59D519-299D-4A1B-85B8-00F427A67543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="122">
   <si>
     <t>ModuleID</t>
   </si>
@@ -348,10 +348,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NVARCHAR(100)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -368,14 +364,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ARCHAR(50)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -501,6 +489,9 @@
   <si>
     <t>操作用户角色ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(1)</t>
   </si>
 </sst>
 </file>
@@ -561,11 +552,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -854,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:C49"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -866,25 +854,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
         <v>67</v>
@@ -892,13 +880,13 @@
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -906,7 +894,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -917,7 +905,7 @@
         <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
         <v>71</v>
@@ -925,7 +913,7 @@
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
         <v>81</v>
@@ -936,7 +924,7 @@
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -946,18 +934,18 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
         <v>67</v>
@@ -965,13 +953,13 @@
     </row>
     <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
         <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -1004,7 +992,7 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -1012,7 +1000,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
@@ -1020,13 +1008,13 @@
     </row>
     <row r="17" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -1053,7 +1041,7 @@
     </row>
     <row r="20" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -1063,11 +1051,11 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -1085,7 +1073,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
@@ -1107,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
         <v>53</v>
@@ -1129,7 +1117,7 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C28" t="s">
         <v>56</v>
@@ -1140,7 +1128,7 @@
         <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="C29" t="s">
         <v>61</v>
@@ -1159,7 +1147,7 @@
     </row>
     <row r="31" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
@@ -1169,21 +1157,21 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -1198,18 +1186,18 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="A37" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
     </row>
     <row r="38" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B38" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C38" t="s">
         <v>67</v>
@@ -1217,29 +1205,29 @@
     </row>
     <row r="39" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B39" t="s">
         <v>82</v>
       </c>
       <c r="C39" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B40" t="s">
         <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B41" t="s">
         <v>81</v>
@@ -1250,7 +1238,7 @@
     </row>
     <row r="42" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B42" t="s">
         <v>29</v>
@@ -1260,9 +1248,9 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1282,10 +1270,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:C27"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1296,18 +1284,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
         <v>67</v>
@@ -1318,7 +1306,7 @@
         <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
         <v>65</v>
@@ -1329,7 +1317,7 @@
         <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
         <v>66</v>
@@ -1337,29 +1325,29 @@
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
         <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -1368,24 +1356,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="1"/>
-    </row>
-    <row r="20" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
+    <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A20:C20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1397,8 +1371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1409,18 +1383,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -1428,13 +1402,13 @@
     </row>
     <row r="3" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -1450,13 +1424,13 @@
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -1464,7 +1438,7 @@
         <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
         <v>74</v>
@@ -1472,7 +1446,7 @@
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -1486,7 +1460,7 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1504,18 +1478,18 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
@@ -1526,7 +1500,7 @@
         <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
         <v>62</v>
@@ -1534,13 +1508,13 @@
     </row>
     <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -1556,13 +1530,13 @@
     </row>
     <row r="16" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -1570,7 +1544,7 @@
         <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
         <v>76</v>
@@ -1578,7 +1552,7 @@
     </row>
     <row r="18" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -1592,7 +1566,7 @@
         <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
         <v>40</v>
@@ -1603,7 +1577,7 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s">
         <v>41</v>
@@ -1621,18 +1595,18 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C24" t="s">
         <v>24</v>
@@ -1651,13 +1625,13 @@
     </row>
     <row r="26" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B26" t="s">
         <v>82</v>
       </c>
       <c r="C26" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -1665,7 +1639,7 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s">
         <v>79</v>
@@ -1676,7 +1650,7 @@
         <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1687,7 +1661,7 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1698,7 +1672,7 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1706,13 +1680,13 @@
     </row>
     <row r="31" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -1728,13 +1702,13 @@
     </row>
     <row r="33" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -1742,7 +1716,7 @@
         <v>75</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C34" t="s">
         <v>76</v>
@@ -1750,7 +1724,7 @@
     </row>
     <row r="35" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B35" t="s">
         <v>29</v>
@@ -1764,7 +1738,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C36" t="s">
         <v>40</v>
@@ -1775,7 +1749,7 @@
         <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C37" t="s">
         <v>41</v>
@@ -1786,7 +1760,7 @@
         <v>25</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C38" t="s">
         <v>13</v>

--- a/数据库脚本/数据库设计.xlsx
+++ b/数据库脚本/数据库设计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\其它项目\ASP.NET\后台管理系统\后台管理模版(权限+分页查询_SQL Server数据库)\BMSystemTemplate\数据库脚本\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D59D519-299D-4A1B-85B8-00F427A67543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFD5203-E7ED-4ED7-B2DF-48C8996699B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="项目基础信息" sheetId="1" r:id="rId1"/>
@@ -842,7 +842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -1272,7 +1272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
@@ -1371,7 +1371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
